--- a/biology/Zoologie/Cynodon_(poisson)/Cynodon_(poisson).xlsx
+++ b/biology/Zoologie/Cynodon_(poisson)/Cynodon_(poisson).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cynodon est un genre de poissons téléostéens de la famille des Cynodontidae et de l'ordre des Characiformes. Le genre Cynodon regroupe plusieurs espèces de poissons américains.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le poisson Cynodon est un genre de poissons d’eau douce appartenant à la famille des Characidae, communément connu sous le nom de dents-de-chien en raison de leur dentition particulièrement développée et aiguisée, adaptée pour saisir des proies. Ces poissons présentent un corps fusiforme et allongé, conçu pour la rapidité, avec des nageoires bien développées qui leur permettent d’effectuer des accélérations brusques pour chasser ou éviter les prédateurs. Leur coloration varie souvent du gris argenté au bleuâtre, avec des reflets métalliques et des motifs ou bandes distinctifs qui peuvent être présents sur le corps, contribuant à leur camouflage dans l’environnement aquatique naturel. Cynodon est connu pour sa vivacité et son comportement prédateur, ce qui en fait à la fois un chasseur efficace et une espèce spectaculaire à observer en aquarium pour les aquariophiles expérimentés.
 </t>
@@ -542,7 +556,9 @@
           <t>Espèces Proches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les espèces proches du genre Cynodon incluent d’autres membres de la famille des Characidae qui partagent des caractéristiques morphologiques et comportementales similaires, notamment des genres tels que Hydrolycus, Pygocentrus, et Serrasalmus, connus pour leur nature prédatrice et leurs puissantes dentitions. Ces genres regroupent des poissons comme les piranhas et les têtes-de-serpent d’argent, qui possèdent également des corps fusiformes et sont adaptés à une vie de rapides prédateurs dans les cours d’eau d’Amérique du Sud. Ces espèces sont réputées pour leur agressivité, leur efficacité à la chasse, et leur capacité à survivre dans des environnements variés, allant des eaux calmes des lacs et des rivières à des courants plus tumultueux. Leur régime alimentaire carnivore et leur comportement de chasse soulignent leur place au sommet de la chaîne alimentaire dans leur habitat naturel, ce qui les rend fascinants mais également exigeants à maintenir en captivité pour les aquariophiles.</t>
@@ -573,7 +589,9 @@
           <t>Répartition géographique et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Cynodon est originaire des régions tropicales d’Amérique du Sud, où il est principalement trouvé dans les bassins fluviaux de l’Amazonie et du bassin du Paraná. Ces poissons habitent généralement les eaux douces des rivières, des ruisseaux, des lacs et des étangs, où ils préfèrent les zones avec une végétation dense et des structures subaquatiques fournissant des cachettes et des opportunités de chasse. Ils sont souvent associés aux milieux aquatiques riches en ressources alimentaires, où ils peuvent exercer leur comportement prédateur. La répartition géographique des espèces de Cynodon varie selon les sous-espèces et les espèces spécifiques, mais elles partagent généralement des habitats similaires dans les cours d’eau et les plans d’eau de l’Amazonie et d’autres régions d’Amérique du Sud.
 </t>
@@ -604,7 +622,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les poissons du genre Cynodon sont reconnus pour leur comportement prédateur actif, ce qui en fait d’excellents chasseurs dans leur habitat naturel. Ces espèces sont généralement agiles et rapides, se spécialisant dans la capture de proies telles que de petits poissons et des insectes aquatiques. Leur comportement social peut varier d’espèce à espèce, avec certains individus montrant des tendances plus solitaires tandis que d’autres peuvent former des groupes ou des bancs pour la chasse ou la défense contre les prédateurs. Leur activité est principalement diurne, bien que certaines espèces puissent également être actives au crépuscule, se servant de leur excellente vue et de leur agilité pour surprendre leurs proies. En aquarium, leur comportement prédateur nécessite une attention particulière lors du choix des compagnons de bac pour éviter la prédation sur des espèces plus petites ou moins agiles.
 </t>
@@ -635,7 +655,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’alimentation des poissons du genre Cynodon est essentiellement carnivore, mettant en évidence leur nature de prédateurs efficaces. Ils se nourrissent principalement de petits poissons, de crustacés, d’insectes aquatiques, et parfois de vers ou d’autres petites créatures aquatiques. Cette diète riche en protéines reflète leur besoin énergétique élevé pour soutenir leur activité rapide et leur comportement de chasse. En captivité, il est crucial de reproduire cette alimentation naturelle en proposant des aliments vivants ou congelés tels que des artémias, des larves de moustique, des daphnies ou des morceaux de poissons et crevettes pour maintenir leur santé et leur vitalité. Une alimentation variée est recommandée pour assurer un apport équilibré en nutriments et prévenir les carences alimentaires, tout en stimulant leur comportement de chasse naturel.
 </t>
@@ -666,7 +688,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La reproduction des poissons du genre Cynodon, comme beaucoup d’autres poissons d’eau douce tropicaux, peut varier en fonction de l’espèce spécifique. Généralement, ils sont connus pour avoir des comportements de frai intéressants, où la température, la qualité de l’eau, et parfois la photopériode peuvent influencer leur cycle de reproduction. Ces poissons sont souvent des frayeurs libres, dispersant leurs œufs dans l’eau où ils seront fécondés. Les œufs ne bénéficient pas de soins parentaux et sont susceptibles de dériver jusqu’à l’éclosion, dépendant de la température de l’eau pour déterminer le temps d’incubation. Pour encourager la reproduction en captivité, les aquariophiles doivent souvent recréer des conditions environnementales spécifiques, telles qu’une augmentation de la température ou des changements dans la composition de l’eau, pour simuler la saison des pluies ou d’autres déclencheurs naturels. La reproduction réussie en aquarium peut nécessiter des aquariums spécialement aménagés qui imitent l’habitat naturel, avec une attention particulière portée à la qualité de l’eau, à l’alimentation et à la gestion de l’espace pour les adultes et les alevins.
 </t>
@@ -697,7 +721,9 @@
           <t>Maintenance en captivité</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La maintenance en captivité des poissons du genre Cynodon demande une attention particulière à la qualité de l’eau, un aquarium suffisamment spacieux pour accueillir leur nature active et des paramètres d’eau spécifiques adaptés à leurs besoins naturels. Ces poissons, souvent de grande taille, requièrent des aquariums avec beaucoup d’espace pour nager librement, idéalement avec un courant modéré pour imiter leur habitat fluvial naturel. La température de l’eau devrait être maintenue dans une gamme spécifique, souvent entre 22°C et 28°C, avec un pH légèrement acide à neutre. La filtration doit être efficace, car les Cynodon sont sensibles à la qualité de l’eau et peuvent souffrir dans des conditions inadéquates. Les changements réguliers d’eau sont cruciaux pour éliminer les déchets et maintenir l’équilibre chimique de l’eau. L’enrichissement de l’habitat avec des cachettes et des zones ombragées, à l’aide de plantes, de bois flotté, ou de roches, offre des espaces de repos et réduit le stress. Une alimentation équilibrée, combinant des aliments vivants, congelés, et préparés, est essentielle pour leur santé et leur bien-être général. La maintenance réussie nécessite donc une planification minutieuse et un engagement à fournir un environnement propre, stable et enrichissant.
 </t>
@@ -728,7 +754,9 @@
           <t>Elevage</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L’élevage des poissons Cynodon en aquarium demande une attention particulière à leurs conditions de vie aquatique, notamment une eau bien oxygénée, propre et à température adaptée à leurs besoins naturels. Ces poissons étant de grands nageurs et souvent de taille conséquente, un aquarium spacieux est indispensable pour leur bien-être. Pour réussir leur reproduction, il est essentiel de recréer des conditions similaires à leur habitat naturel, ce qui inclut souvent la simulation de la saison des pluies pour stimuler le frai. Les éleveurs doivent également prêter attention à la qualité de l’eau, à l’alimentation variée et à la gestion des paramètres spécifiques tels que le pH et la dureté. La surveillance des œufs et des alevins est cruciale, car ils peuvent nécessiter des soins spéciaux pour maximiser les taux de survie.
